--- a/Practica_2/BA/BA_Estudio/Optimizacion/BA_Optimizacion.xlsx
+++ b/Practica_2/BA/BA_Estudio/Optimizacion/BA_Optimizacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\EUE\Practica_2\BA\BA_Estudio\Optimizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32A710E-D2C8-425B-9B06-7A45CA169635}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D05B4E-8EF2-4814-9DBB-61CA9BEAA13A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C4F7E80-8C79-4120-8B9D-E7CA74F5DB21}"/>
   </bookViews>
@@ -35,23 +35,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>2D_Shell</t>
   </si>
   <si>
-    <t>2mm</t>
-  </si>
-  <si>
     <t>Rig_Ext(Rectangular)</t>
   </si>
   <si>
-    <t>W=5mm</t>
-  </si>
-  <si>
-    <t>H= 13mm</t>
-  </si>
-  <si>
     <t>R_Int (Rectangular)</t>
   </si>
   <si>
@@ -181,7 +172,7 @@
     <t>I  [t = 2 mm]</t>
   </si>
   <si>
-    <t>I  [t = 2,5 mm]</t>
+    <t>I  [t = 1,8 mm]</t>
   </si>
 </sst>
 </file>
@@ -215,12 +206,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF10A567"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +266,11 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -425,7 +422,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -436,8 +433,9 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -447,9 +445,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -487,11 +482,9 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,7 +519,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Énfasis2" xfId="3" builtinId="34"/>
     <cellStyle name="20% - Énfasis3" xfId="4" builtinId="38"/>
@@ -534,6 +527,7 @@
     <cellStyle name="20% - Énfasis5" xfId="6" builtinId="46"/>
     <cellStyle name="20% - Énfasis6" xfId="7" builtinId="50"/>
     <cellStyle name="40% - Énfasis1" xfId="2" builtinId="31"/>
+    <cellStyle name="Bueno" xfId="10" builtinId="26"/>
     <cellStyle name="Incorrecto" xfId="9" builtinId="27"/>
     <cellStyle name="Millares" xfId="8" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37681EE4-180F-4F65-911D-27C4AC2AD661}">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,118 +859,109 @@
     <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="25" t="s">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="1" t="s">
+      <c r="I2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" s="17" t="s">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="C3" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="U2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="D3" s="2">
         <v>448000000</v>
@@ -984,75 +969,66 @@
       <c r="E3" s="2">
         <v>523000000</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="19">
         <v>2E-3</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H3">
-        <f>L3</f>
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3" si="0">-(F3+H3)/2</f>
-        <v>-7.4999999999999997E-3</v>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3" si="0">L3</f>
+        <v>0.02</v>
+      </c>
+      <c r="I3" s="19">
+        <f t="shared" ref="I3" si="1">-(F3+H3)/2</f>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3">
+        <v>44</v>
+      </c>
+      <c r="K3" s="19">
         <v>0.01</v>
       </c>
-      <c r="L3">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3" si="1">-(F3+L3)/2</f>
-        <v>-7.4999999999999997E-3</v>
+      <c r="L3" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="M3" s="19">
+        <f t="shared" ref="M3" si="2">-(F3+L3)/2</f>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="N3" s="3">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="O3">
-        <v>120</v>
+        <v>2.35</v>
+      </c>
+      <c r="O3" s="19">
+        <v>183</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="2">
-        <v>393000000</v>
+        <v>264000000</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S3" s="3">
-        <f t="shared" ref="S3" si="2" xml:space="preserve"> D3/( MAX(P3:R3)*1.1*1.2*1.1*1.1 ) - 1</f>
-        <v>-0.28628280151843366</v>
+        <f t="shared" ref="S3" si="3" xml:space="preserve"> D3/( MAX(P3:R3)*1.1*1.2*1.1*1.1 ) - 1</f>
+        <v>6.2465375012331847E-2</v>
       </c>
       <c r="T3" s="3">
-        <f t="shared" ref="T3" si="3" xml:space="preserve"> E3/( MAX(P3:R3)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>-0.26678302805991927</v>
-      </c>
-      <c r="U3" t="s">
-        <v>2</v>
-      </c>
-      <c r="V3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" ref="T3" si="4" xml:space="preserve"> E3/( MAX(P3:R3)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>9.1493446865347661E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>37</v>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D4" s="2">
         <v>448000000</v>
@@ -1060,344 +1036,516 @@
       <c r="E4" s="2">
         <v>523000000</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <v>2E-3</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <f>L4</f>
         <v>0.02</v>
       </c>
-      <c r="I4" s="6">
-        <f t="shared" ref="I4" si="4">-(F4+H4)/2</f>
+      <c r="I4" s="19">
+        <f>-(F4+H4)/2</f>
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="J4" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="20">
+      <c r="J4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="M4" s="19">
+        <f>-(F4+L4)/2</f>
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O4" s="19">
+        <v>179</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>281000000</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="3">
+        <f xml:space="preserve"> D4/( MAX(P4:R4)*1.1*1.2*1.1*1.1 ) - 1</f>
+        <v>-1.8118896681295071E-3</v>
+      </c>
+      <c r="T4" s="3">
+        <f xml:space="preserve"> E4/( MAX(P4:R4)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>2.54600354891521E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2">
+        <v>448000000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>523000000</v>
+      </c>
+      <c r="F5" s="19">
+        <v>2E-3</v>
+      </c>
+      <c r="G5" s="19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H5" s="5">
+        <f>L5</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I5" s="19">
+        <f t="shared" ref="I5" si="5">-(F5+H5)/2</f>
+        <v>-9.9999999999999985E-3</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="19">
         <v>0.01</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L5" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M5" s="19">
+        <f t="shared" ref="M5" si="6">-(F5+L5)/2</f>
+        <v>-9.9999999999999985E-3</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2.27</v>
+      </c>
+      <c r="O5" s="19">
+        <v>165</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>305000000</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" ref="S5" si="7" xml:space="preserve"> D5/( MAX(P5:R5)*1.1*1.2*1.1*1.1 ) - 1</f>
+        <v>-8.0357839333588088E-2</v>
+      </c>
+      <c r="T5" s="3">
+        <f t="shared" ref="T5" si="8" xml:space="preserve"> E5/( MAX(P5:R5)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>-5.5231901729666411E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2">
+        <v>448000000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>523000000</v>
+      </c>
+      <c r="F6" s="19">
+        <v>2E-3</v>
+      </c>
+      <c r="G6" s="19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" ref="H6" si="9">L6</f>
         <v>0.02</v>
       </c>
-      <c r="M4" s="6">
-        <f t="shared" ref="M4" si="5">-(F4+L4)/2</f>
+      <c r="I6" s="19">
+        <f t="shared" ref="I6:I7" si="10">-(F6+H6)/2</f>
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="N4" s="3">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="O4" s="20">
-        <v>120</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>393000000</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" s="3">
-        <f t="shared" ref="S4" si="6" xml:space="preserve"> D4/( MAX(P4:R4)*1.1*1.2*1.1*1.1 ) - 1</f>
-        <v>-0.28628280151843366</v>
-      </c>
-      <c r="T4" s="3">
-        <f t="shared" ref="T4" si="7" xml:space="preserve"> E4/( MAX(P4:R4)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>-0.26678302805991927</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="J6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="M6" s="19">
+        <f t="shared" ref="M6:M7" si="11">-(F6+L6)/2</f>
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>2.29</v>
+      </c>
+      <c r="O6" s="19">
+        <v>176</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>284000000</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" ref="S6:S7" si="12" xml:space="preserve"> D6/( MAX(P6:R6)*1.1*1.2*1.1*1.1 ) - 1</f>
+        <v>-1.235613027022664E-2</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" ref="T6:T7" si="13" xml:space="preserve"> E6/( MAX(P6:R6)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>1.4627711170604796E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2">
         <v>448000000</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E7" s="2">
         <v>523000000</v>
       </c>
-      <c r="F13">
+      <c r="F7" s="19">
         <v>2E-3</v>
       </c>
-      <c r="G13">
+      <c r="G7" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H13">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I13">
-        <f>-(F13+H13)/2</f>
-        <v>-7.4999999999999997E-3</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13">
-        <v>0.01</v>
-      </c>
-      <c r="L13" s="6">
-        <f xml:space="preserve"> 0.013*1.5</f>
-        <v>1.95E-2</v>
-      </c>
-      <c r="M13">
-        <f>-(F13+L13)/2</f>
-        <v>-1.0749999999999999E-2</v>
-      </c>
-      <c r="N13" s="3">
-        <v>2.16</v>
-      </c>
-      <c r="O13">
-        <v>176</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>237000000</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S13" s="3">
-        <f xml:space="preserve"> D13/( MAX(P13:R13)*1.1*1.2*1.1*1.1 ) - 1</f>
-        <v>0.18350573419095206</v>
-      </c>
-      <c r="T13" s="3">
-        <f xml:space="preserve"> E13/( MAX(P13:R13)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>0.21584080157152652</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="H7" s="5">
+        <f>L7</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I7" s="19">
+        <f t="shared" si="10"/>
+        <v>-9.9999999999999985E-3</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="19">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M7" s="19">
+        <f t="shared" si="11"/>
+        <v>-9.9999999999999985E-3</v>
+      </c>
+      <c r="N7" s="3">
+        <v>2.37</v>
+      </c>
+      <c r="O7" s="19">
+        <v>171</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>271000000</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="12"/>
+        <v>3.5021619938212512E-2</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="13"/>
+        <v>6.3299889197238945E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2">
         <v>448000000</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E8" s="2">
         <v>523000000</v>
       </c>
-      <c r="F14">
+      <c r="F8" s="19">
         <v>2E-3</v>
       </c>
-      <c r="G14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H14">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I14">
-        <f t="shared" ref="I14" si="8">-(F14+H14)/2</f>
-        <v>-7.4999999999999997E-3</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14">
-        <v>0.01</v>
-      </c>
-      <c r="L14" s="6">
-        <f xml:space="preserve"> 0.013*1.4</f>
-        <v>1.8199999999999997E-2</v>
-      </c>
-      <c r="M14">
-        <f>-(F14+L14)/2</f>
-        <v>-1.0099999999999998E-2</v>
-      </c>
-      <c r="N14" s="3">
-        <v>2.27</v>
-      </c>
-      <c r="O14">
-        <v>177.5</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>223000000</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S14" s="3">
-        <f xml:space="preserve"> D14/( MAX(P14:R14)*1.1*1.2*1.1*1.1 ) - 1</f>
-        <v>0.25780654261549629</v>
-      </c>
-      <c r="T14" s="3">
-        <f xml:space="preserve"> E14/( MAX(P14:R14)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>0.29217161422624116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="2">
-        <v>448000000</v>
-      </c>
-      <c r="E15" s="2">
-        <v>523000000</v>
-      </c>
-      <c r="F15">
+      <c r="G8" s="19">
         <v>2E-3</v>
       </c>
-      <c r="G15">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H15">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I15">
-        <f t="shared" ref="I15" si="9">-(F15+H15)/2</f>
-        <v>-7.4999999999999997E-3</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15">
-        <v>0.01</v>
-      </c>
-      <c r="L15" s="6">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="M15">
-        <f>-(F15+L15)/2</f>
-        <v>-9.5000000000000015E-3</v>
-      </c>
-      <c r="N15" s="3">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="O15">
-        <v>166.3</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>244000000</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S15" s="3">
-        <f xml:space="preserve"> D15/( MAX(P15:R15)*1.1*1.2*1.1*1.1 ) - 1</f>
-        <v>0.14955270083301508</v>
-      </c>
-      <c r="T15" s="3">
-        <f xml:space="preserve"> E15/( MAX(P15:R15)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>0.18096012283791718</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="2">
-        <v>448000000</v>
-      </c>
-      <c r="E16" s="2">
-        <v>523000000</v>
-      </c>
-      <c r="F16">
-        <v>2E-3</v>
-      </c>
-      <c r="G16">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H16">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I16">
-        <f t="shared" ref="I16" si="10">-(F16+H16)/2</f>
-        <v>-7.4999999999999997E-3</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16">
-        <v>0.01</v>
-      </c>
-      <c r="L16" s="6">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="M16">
-        <f>-(F16+L16)/2</f>
-        <v>-9.5000000000000015E-3</v>
-      </c>
-      <c r="N16" s="3">
-        <v>2.12</v>
-      </c>
-      <c r="O16">
-        <v>154.69999999999999</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>282000000</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S16" s="3">
-        <f xml:space="preserve"> D16/( MAX(P16:R16)*1.1*1.2*1.1*1.1 ) - 1</f>
-        <v>-5.3515638182424219E-3</v>
-      </c>
-      <c r="T16" s="3">
-        <f xml:space="preserve"> E16/( MAX(P16:R16)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>2.1823652384580727E-2</v>
-      </c>
+      <c r="H8" s="5">
+        <f>L8</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I8" s="19">
+        <f t="shared" ref="I8" si="14">-(F8+H8)/2</f>
+        <v>-9.9999999999999985E-3</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="19">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M8" s="19">
+        <f t="shared" ref="M8" si="15">-(F8+L8)/2</f>
+        <v>-9.9999999999999985E-3</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="O8" s="19">
+        <v>168</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>279000000</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" s="3">
+        <f t="shared" ref="S8" si="16" xml:space="preserve"> D8/( MAX(P8:R8)*1.1*1.2*1.1*1.1 ) - 1</f>
+        <v>5.3435806568302713E-3</v>
+      </c>
+      <c r="T8" s="3">
+        <f t="shared" ref="T8" si="17" xml:space="preserve"> E8/( MAX(P8:R8)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>3.2811003485490264E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+    </row>
+    <row r="11" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+    </row>
+    <row r="15" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+    </row>
+    <row r="17" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+    </row>
+    <row r="18" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+    </row>
+    <row r="20" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:O12"/>
+  <mergeCells count="4">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="N1:T1"/>
@@ -1423,15 +1571,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1441,7 +1589,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -1452,7 +1600,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1000</v>
@@ -1463,63 +1611,63 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Practica_2/BA/BA_Estudio/Optimizacion/BA_Optimizacion.xlsx
+++ b/Practica_2/BA/BA_Estudio/Optimizacion/BA_Optimizacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\EUE\Practica_2\BA\BA_Estudio\Optimizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D05B4E-8EF2-4814-9DBB-61CA9BEAA13A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B319B9A-BDF5-414E-BEDE-2319BFF4FD72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C4F7E80-8C79-4120-8B9D-E7CA74F5DB21}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C4F7E80-8C79-4120-8B9D-E7CA74F5DB21}"/>
   </bookViews>
   <sheets>
     <sheet name="Propiedades" sheetId="1" r:id="rId1"/>
@@ -845,7 +845,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
